--- a/Lesson 7/NF.xlsx
+++ b/Lesson 7/NF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanya\Desktop\Tatsiana.Podobed\Lesson 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43752A72-C022-4C2D-8ED6-D586E166C05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5A8E2F-4905-473C-AAC2-E2BE89ADD347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="165" windowWidth="16920" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="114">
   <si>
     <t>id</t>
   </si>
@@ -372,6 +372,15 @@
   </si>
   <si>
     <t>id_s</t>
+  </si>
+  <si>
+    <t>id_mark</t>
+  </si>
+  <si>
+    <t>id_mod</t>
+  </si>
+  <si>
+    <t>id_model</t>
   </si>
 </sst>
 </file>
@@ -749,25 +758,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -910,21 +919,15 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -932,403 +935,624 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" s="4">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>3</v>
-      </c>
-      <c r="B14" s="4">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>3</v>
-      </c>
-      <c r="B15" s="4">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>3</v>
-      </c>
-      <c r="B16" s="4">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>3</v>
-      </c>
-      <c r="B17" s="4">
-        <v>9</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>85</v>
+      <c r="H20" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I22" s="1">
-        <v>2</v>
-      </c>
-      <c r="J22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="1">
-        <v>3</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I23" s="1">
-        <v>3</v>
-      </c>
-      <c r="J23" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="1">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="4">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="4">
+        <v>6</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="4">
+        <v>7</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="4">
+        <v>8</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="4">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
+      <c r="P33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K34" s="1">
+        <v>2</v>
+      </c>
+      <c r="N34" s="1">
+        <v>2</v>
+      </c>
+      <c r="O34" s="1">
+        <v>2</v>
+      </c>
+      <c r="P34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I35" s="1">
+        <v>3</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K35" s="1">
+        <v>3</v>
+      </c>
+      <c r="N35" s="1">
+        <v>3</v>
+      </c>
+      <c r="O35" s="1">
+        <v>3</v>
+      </c>
+      <c r="P35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>4</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="I36" s="1">
+        <v>4</v>
+      </c>
+      <c r="J36" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I24" s="1">
+      <c r="K36" s="1">
         <v>4</v>
       </c>
-      <c r="J24" s="1">
+      <c r="N36" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E25" s="1">
+      <c r="O36" s="1">
+        <v>4</v>
+      </c>
+      <c r="P36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E37" s="1">
         <v>5</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="I37" s="1">
+        <v>5</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I25" s="1">
-        <v>2</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="K37" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E26" s="1">
+      <c r="N37" s="1">
+        <v>5</v>
+      </c>
+      <c r="O37" s="1">
+        <v>2</v>
+      </c>
+      <c r="P37" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E38" s="1">
         <v>6</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="I38" s="1">
+        <v>6</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I26" s="1">
-        <v>3</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="K38" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E27" s="1">
+      <c r="N38" s="1">
+        <v>6</v>
+      </c>
+      <c r="O38" s="1">
+        <v>3</v>
+      </c>
+      <c r="P38" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E39" s="1">
         <v>7</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="I39" s="1">
+        <v>7</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I27" s="1">
-        <v>3</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="K39" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E28" s="1">
+      <c r="N39" s="1">
+        <v>7</v>
+      </c>
+      <c r="O39" s="1">
+        <v>3</v>
+      </c>
+      <c r="P39" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E40" s="1">
         <v>8</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="I40" s="1">
+        <v>8</v>
+      </c>
+      <c r="J40" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I28" s="1">
-        <v>3</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="K40" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E29" s="1">
+      <c r="N40" s="1">
+        <v>8</v>
+      </c>
+      <c r="O40" s="1">
+        <v>3</v>
+      </c>
+      <c r="P40" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E41" s="1">
         <v>9</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="I41" s="1">
+        <v>9</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I29" s="1">
-        <v>3</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="K41" s="1">
+        <v>9</v>
+      </c>
+      <c r="N41" s="1">
+        <v>9</v>
+      </c>
+      <c r="O41" s="1">
+        <v>3</v>
+      </c>
+      <c r="P41" s="1">
         <v>9</v>
       </c>
     </row>
@@ -1346,7 +1570,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,16 +1685,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02382D92-2C3A-4BC4-BB1C-10FE20F3EB84}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="6" width="13.5703125" customWidth="1"/>
@@ -1556,170 +1779,122 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
@@ -1733,23 +1908,17 @@
       <c r="F18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="I18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -1765,17 +1934,14 @@
       <c r="F19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -1791,25 +1957,22 @@
       <c r="F20" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="I20" s="1">
+        <v>2</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I20" s="1">
-        <v>2</v>
-      </c>
-      <c r="J20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21" s="1">
         <v>3</v>
@@ -1817,25 +1980,22 @@
       <c r="F21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="I21" s="1">
+        <v>3</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I21" s="1">
-        <v>2</v>
-      </c>
-      <c r="J21" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1">
         <v>4</v>
@@ -1843,64 +2003,335 @@
       <c r="F22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="I22" s="1">
+        <v>4</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I22" s="1">
-        <v>2</v>
-      </c>
-      <c r="J22" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E23" s="1">
         <v>5</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="I23" s="1">
+        <v>5</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I23" s="1">
-        <v>3</v>
-      </c>
-      <c r="J23" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E24" s="1">
         <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="I24" s="1">
+        <v>6</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I24" s="1">
-        <v>3</v>
-      </c>
-      <c r="J24" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E25" s="1">
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="I25" s="1">
+        <v>7</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I25" s="4">
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2</v>
+      </c>
+      <c r="L31" s="1">
+        <v>2</v>
+      </c>
+      <c r="M31" s="1">
+        <v>2</v>
+      </c>
+      <c r="N31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="1">
+        <v>3</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J32" s="1">
+        <v>3</v>
+      </c>
+      <c r="L32" s="1">
+        <v>3</v>
+      </c>
+      <c r="M32" s="1">
+        <v>2</v>
+      </c>
+      <c r="N32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>4</v>
       </c>
-      <c r="J25" s="1">
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="1">
+        <v>4</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J33" s="1">
+        <v>4</v>
+      </c>
+      <c r="L33" s="1">
+        <v>4</v>
+      </c>
+      <c r="M33" s="1">
+        <v>2</v>
+      </c>
+      <c r="N33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E34" s="1">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" s="1">
+        <v>5</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J34" s="1">
+        <v>5</v>
+      </c>
+      <c r="L34" s="1">
+        <v>5</v>
+      </c>
+      <c r="M34" s="1">
+        <v>3</v>
+      </c>
+      <c r="N34" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E35" s="1">
+        <v>6</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="1">
+        <v>6</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J35" s="1">
+        <v>6</v>
+      </c>
+      <c r="L35" s="1">
+        <v>6</v>
+      </c>
+      <c r="M35" s="1">
+        <v>3</v>
+      </c>
+      <c r="N35" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E36" s="1">
+        <v>7</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="1">
+        <v>7</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J36" s="1">
+        <v>7</v>
+      </c>
+      <c r="L36" s="1">
+        <v>7</v>
+      </c>
+      <c r="M36" s="4">
+        <v>4</v>
+      </c>
+      <c r="N36" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1917,7 +2348,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2080,10 +2511,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E8C2A8-3376-4E26-A9BC-CB774E2B4B7D}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2097,9 +2528,10 @@
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -2122,7 +2554,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>23</v>
       </c>
@@ -2142,7 +2574,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>24</v>
       </c>
@@ -2162,7 +2594,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>25</v>
       </c>
@@ -2182,7 +2614,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>19</v>
       </c>
@@ -2202,7 +2634,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
@@ -2216,22 +2648,28 @@
         <v>110</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>23</v>
       </c>
@@ -2250,14 +2688,20 @@
       <c r="G9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>24</v>
       </c>
@@ -2270,20 +2714,20 @@
       <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -2296,20 +2740,20 @@
       <c r="D11" s="1">
         <v>3</v>
       </c>
-      <c r="F11" s="1">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>19</v>
       </c>
@@ -2322,17 +2766,17 @@
       <c r="D12" s="1">
         <v>4</v>
       </c>
-      <c r="F12" s="1">
+      <c r="I12" s="1">
         <v>4</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>74</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2344,8 +2788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DE2DF7-C2F5-497A-B72F-8E6B7016FD21}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
